--- a/planilha/aniversariantes.xlsx
+++ b/planilha/aniversariantes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\BotZap\planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teste\Documents\GitHub\botZapLivre\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BEDCD3-CF23-4406-B995-B732FE324EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D057897-498C-4F93-B42F-210C7F0AF82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="3540" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -384,13 +384,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B5" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -466,7 +466,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B6" s="5">
         <v>7499990520</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B7" s="5">
         <v>7499990520</v>
